--- a/Documentación/Resultados2.xlsx
+++ b/Documentación/Resultados2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B336C05-8403-124C-B21D-CE0CD438056A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22D0E3-95AC-2A4F-9B95-E250DF1D84D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>
